--- a/biology/Botanique/Prospection_géobotanique/Prospection_géobotanique.xlsx
+++ b/biology/Botanique/Prospection_géobotanique/Prospection_géobotanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prospection_g%C3%A9obotanique</t>
+          <t>Prospection_géobotanique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La prospection géobotanique désigne la prospection qui s'appuie sur des plantes bio-indicatrices comme les métallophytes et l'analyse de la végétation dans le but de renseigner sur la présence de potentiels gisements. 
-La mine Viscaria, en Suède, est nommée d'après la plante Silene suecica (syn. Viscaria alpina), dont la présence permit la découverte du gisement[1]. 
+La mine Viscaria, en Suède, est nommée d'après la plante Silene suecica (syn. Viscaria alpina), dont la présence permit la découverte du gisement. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prospection_g%C3%A9obotanique</t>
+          <t>Prospection_géobotanique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Bio-indicateurs notables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une des plantes indicatrices les plus fiables à cet effet reste Ocimum centraliafricanum, surnommée la « plante de cuivre » ou « fleur de cuivre » et anciennement connue sous le taxon Becium homblei, elle se trouve uniquement sur des sols contenant du cuivre (et du nickel), en Afrique centrale et australe[2]. 
-En 2015, Stephen E. Haggerty identifie l'arbuste persistant Pandanus candelabrum comme un indicateur possible des diatrèmes de kimberlite, un filon diamantifère[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une des plantes indicatrices les plus fiables à cet effet reste Ocimum centraliafricanum, surnommée la « plante de cuivre » ou « fleur de cuivre » et anciennement connue sous le taxon Becium homblei, elle se trouve uniquement sur des sols contenant du cuivre (et du nickel), en Afrique centrale et australe. 
+En 2015, Stephen E. Haggerty identifie l'arbuste persistant Pandanus candelabrum comme un indicateur possible des diatrèmes de kimberlite, un filon diamantifère. 
 </t>
         </is>
       </c>
